--- a/datafiles/genus.xlsx
+++ b/datafiles/genus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d641367ab90122e/_tec/codi/GM/Terraformer2D/datafiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="8_{9828CACF-C433-4BD3-8EC2-D880FF0C148B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4BFF32D7-7175-46F0-A9F2-301CDE1DC688}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="8_{9828CACF-C433-4BD3-8EC2-D880FF0C148B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FBFD9C5F-6685-4B5E-BD7F-DF962CA7BEAA}"/>
   <bookViews>
-    <workbookView xWindow="8355" yWindow="840" windowWidth="21225" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8145" yWindow="840" windowWidth="21225" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial_species" sheetId="3" r:id="rId1"/>
@@ -556,7 +556,207 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -961,7 +1161,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1806,8 +2006,8 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25">
-        <v>0.1</v>
+      <c r="J25" s="8">
+        <v>0.3</v>
       </c>
       <c r="K25">
         <v>0.1</v>
@@ -1844,8 +2044,8 @@
       <c r="I26" s="1">
         <v>0.4</v>
       </c>
-      <c r="J26" s="1">
-        <v>0.12</v>
+      <c r="J26" s="9">
+        <v>0.05</v>
       </c>
       <c r="K26" s="1">
         <v>0.12</v>
@@ -2423,34 +2623,34 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K5">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:L5 E5:G5 B5:C5">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5 I5:J5 B5:C5 E5">
-    <cfRule type="duplicateValues" dxfId="5" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="11"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datafiles/genus.xlsx
+++ b/datafiles/genus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d641367ab90122e/_tec/codi/GM/Terraformer2D/datafiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{F7321E54-52E2-4F17-9351-65A1B11862FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ECC49A68-EB2B-4B09-AF62-632B1A14821B}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{7DA26B0D-C8AE-4001-A03E-85F85492B8E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B30AC750-6ED6-4187-8845-563F6B44835C}"/>
   <bookViews>
-    <workbookView xWindow="6705" yWindow="630" windowWidth="21540" windowHeight="19170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="300" windowWidth="21540" windowHeight="19170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="genus" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>Ricard Dalmau</author>
   </authors>
   <commentList>
-    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{DF3650A6-B6C2-45A8-9464-2BF746300551}">
+    <comment ref="A28" authorId="0" shapeId="0" xr:uid="{DF3650A6-B6C2-45A8-9464-2BF746300551}">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A30" authorId="0" shapeId="0" xr:uid="{6EC34207-E0B4-452E-B700-5C4500558972}">
+    <comment ref="A32" authorId="0" shapeId="0" xr:uid="{6EC34207-E0B4-452E-B700-5C4500558972}">
       <text>
         <r>
           <rPr>
@@ -89,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A38" authorId="0" shapeId="0" xr:uid="{AC5AF4F0-BD59-4DF7-A2B9-16AAD27ECE38}">
+    <comment ref="A40" authorId="0" shapeId="0" xr:uid="{AC5AF4F0-BD59-4DF7-A2B9-16AAD27ECE38}">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="94">
   <si>
     <t>GEN_START</t>
   </si>
@@ -189,6 +189,9 @@
     <t>PARENT_SPECIE_CODE</t>
   </si>
   <si>
+    <t>EMPTY6</t>
+  </si>
+  <si>
     <t>AGE_DEAD</t>
   </si>
   <si>
@@ -390,10 +393,13 @@
     <t>Per baixar aigua consumida cal baixar KC vigilant que LMFa quedi &gt; 0,01</t>
   </si>
   <si>
+    <t>COMBAT_ATTACK_POINTS</t>
+  </si>
+  <si>
+    <t>COMBAT_DEFENSE_POINTS</t>
+  </si>
+  <si>
     <t>version</t>
-  </si>
-  <si>
-    <t>INDIVIDUALS_PER_CREATURE</t>
   </si>
 </sst>
 </file>
@@ -543,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -584,6 +590,8 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,50 +1015,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF56E24-D116-4545-8100-A73B8CF06CFE}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B1" s="23">
         <f ca="1">NOW()</f>
-        <v>44321.318385069448</v>
+        <v>44323.655760300928</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B2" s="8">
         <v>180</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" s="1">
         <v>0.1</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
@@ -1060,7 +1068,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>8</v>
@@ -1101,34 +1109,34 @@
     </row>
     <row r="6" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>15</v>
@@ -1212,7 +1220,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B9" s="2">
         <f>VLOOKUP(B6,Tabla1[#All],2,FALSE)</f>
@@ -1265,34 +1273,34 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
         <v>58</v>
       </c>
-      <c r="D10" t="s">
-        <v>57</v>
-      </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>83</v>
+      <c r="H10" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="I10" t="s">
         <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K10" t="s">
         <v>19</v>
@@ -1306,7 +1314,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1326,7 +1334,7 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="9">
         <v>0</v>
       </c>
       <c r="I11">
@@ -1367,7 +1375,7 @@
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="9">
         <v>0</v>
       </c>
       <c r="I12">
@@ -1388,7 +1396,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B13">
         <v>-1</v>
@@ -1408,7 +1416,7 @@
       <c r="G13">
         <v>-1</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="9">
         <v>-1</v>
       </c>
       <c r="I13">
@@ -1429,48 +1437,48 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15">
         <v>30</v>
@@ -1490,7 +1498,7 @@
       <c r="G15">
         <v>30</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="9">
         <v>180</v>
       </c>
       <c r="I15">
@@ -1511,7 +1519,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1552,7 +1560,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>12</v>
@@ -1572,7 +1580,7 @@
       <c r="G17">
         <v>3</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="9">
         <v>3</v>
       </c>
       <c r="I17">
@@ -1593,7 +1601,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1613,7 +1621,7 @@
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="9">
         <v>1</v>
       </c>
       <c r="I18">
@@ -1623,10 +1631,10 @@
         <v>1</v>
       </c>
       <c r="K18">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="L18">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -1634,7 +1642,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>64</v>
@@ -1654,8 +1662,8 @@
       <c r="G19">
         <v>64</v>
       </c>
-      <c r="H19" s="7">
-        <v>32</v>
+      <c r="H19" s="9">
+        <v>64</v>
       </c>
       <c r="I19">
         <v>64</v>
@@ -1675,7 +1683,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1695,7 +1703,7 @@
       <c r="G20">
         <v>4</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="9">
         <v>2</v>
       </c>
       <c r="I20">
@@ -1716,543 +1724,543 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>4</v>
-      </c>
-      <c r="H21" s="7">
-        <v>200</v>
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M21">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="B22">
-        <v>800</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>250</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>8</v>
-      </c>
-      <c r="H22" s="7">
-        <v>400</v>
+        <v>1</v>
+      </c>
+      <c r="H22" s="9">
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M22">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="H23" s="9">
+        <v>200</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K23">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>26</v>
+      <c r="A24" t="s">
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.1</v>
+        <v>800</v>
       </c>
       <c r="C24">
-        <v>0.1</v>
+        <v>250</v>
       </c>
       <c r="D24">
-        <v>0.1</v>
+        <v>200</v>
       </c>
       <c r="E24">
-        <v>0.1</v>
+        <v>300</v>
       </c>
       <c r="F24">
-        <v>0.2</v>
+        <v>8</v>
       </c>
       <c r="G24">
-        <v>0.1</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0.1</v>
+        <v>8</v>
+      </c>
+      <c r="H24" s="9">
+        <v>400</v>
       </c>
       <c r="I24">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="J24">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="K24">
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="L24">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="M24">
-        <v>0.2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B25">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0.4</v>
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="L25">
         <v>0.4</v>
       </c>
       <c r="M25">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>28</v>
+      <c r="A26" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0.1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26" s="7">
-        <v>0.3</v>
+        <v>0.1</v>
+      </c>
+      <c r="K26">
+        <v>0.2</v>
       </c>
       <c r="L26">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M26">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="H27" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="I27" s="1">
+        <v>44</v>
+      </c>
+      <c r="B27">
         <v>0.4</v>
       </c>
-      <c r="J27" s="1">
+      <c r="C27">
         <v>0.4</v>
       </c>
-      <c r="K27" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="L27" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0.12</v>
+      <c r="D27">
+        <v>0.4</v>
+      </c>
+      <c r="E27">
+        <v>0.4</v>
+      </c>
+      <c r="F27">
+        <v>0.4</v>
+      </c>
+      <c r="G27">
+        <v>0.4</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I27">
+        <v>0.4</v>
+      </c>
+      <c r="J27">
+        <v>0.4</v>
+      </c>
+      <c r="K27">
+        <v>0.4</v>
+      </c>
+      <c r="L27">
+        <v>0.4</v>
+      </c>
+      <c r="M27">
+        <v>0.4</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="1">
-        <v>30</v>
-      </c>
-      <c r="C28" s="1">
-        <v>24</v>
-      </c>
-      <c r="D28" s="1">
-        <v>15</v>
-      </c>
-      <c r="E28" s="1">
-        <v>5</v>
-      </c>
-      <c r="F28" s="1">
-        <v>20</v>
-      </c>
-      <c r="G28" s="1">
-        <v>25</v>
-      </c>
-      <c r="H28" s="8">
-        <v>25</v>
-      </c>
-      <c r="I28" s="1">
-        <v>20</v>
-      </c>
-      <c r="J28" s="1">
-        <v>-10</v>
-      </c>
-      <c r="K28" s="8">
-        <v>0</v>
-      </c>
-      <c r="L28" s="8">
-        <v>0</v>
-      </c>
-      <c r="M28" s="8">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="L28">
+        <v>0.1</v>
+      </c>
+      <c r="M28">
+        <v>0.1</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B29" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H29" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K29" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1">
+        <v>24</v>
+      </c>
+      <c r="D30" s="1">
         <v>15</v>
       </c>
-      <c r="C29" s="1">
+      <c r="E30" s="1">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1">
+        <v>20</v>
+      </c>
+      <c r="G30" s="1">
+        <v>25</v>
+      </c>
+      <c r="H30" s="10">
+        <v>20</v>
+      </c>
+      <c r="I30" s="1">
+        <v>20</v>
+      </c>
+      <c r="J30" s="1">
+        <v>-10</v>
+      </c>
+      <c r="K30" s="8">
+        <v>0</v>
+      </c>
+      <c r="L30" s="8">
+        <v>0</v>
+      </c>
+      <c r="M30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="1">
+        <v>15</v>
+      </c>
+      <c r="C31" s="1">
         <v>3</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D31" s="10">
         <v>5</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E31" s="1">
         <v>10</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F31" s="1">
         <v>10</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G31" s="1">
         <v>6</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H31" s="10">
         <v>10</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I31" s="1">
         <v>5</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J31" s="1">
         <v>20</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K31" s="8">
         <v>50</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L31" s="8">
         <v>50</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M31" s="8">
         <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-      <c r="H30" s="8">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0</v>
-      </c>
-      <c r="L30" s="1">
-        <v>0</v>
-      </c>
-      <c r="M30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="C31" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="D31" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="E31" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="F31" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="G31" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="H31" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="I31" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="J31" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="K31" s="1">
-        <v>0</v>
-      </c>
-      <c r="L31" s="1">
-        <v>0</v>
-      </c>
-      <c r="M31" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="1">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="8">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0</v>
-      </c>
-      <c r="L32" s="1">
-        <v>0</v>
-      </c>
-      <c r="M32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0.04</v>
+      <c r="B33" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G33" s="10">
+        <v>0.9</v>
       </c>
       <c r="H33" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
+        <v>0.7</v>
+      </c>
+      <c r="I33" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="J33" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="B34" s="1">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
@@ -2261,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -2278,46 +2286,46 @@
       <c r="J34" s="1">
         <v>0</v>
       </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="C35" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E35" s="1">
-        <v>1.2</v>
+        <v>0.06</v>
       </c>
       <c r="F35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="H35" s="8">
-        <v>0</v>
+        <v>0.04</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0.13</v>
       </c>
       <c r="I35" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="J35" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2331,34 +2339,34 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>50</v>
+        <v>1600</v>
       </c>
       <c r="C36" s="1">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="D36" s="1">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="F36" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1">
-        <v>30</v>
-      </c>
-      <c r="H36" s="8">
-        <v>350</v>
+        <v>0</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J36" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -2372,257 +2380,339 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1">
+      <c r="B38" s="1">
+        <v>50</v>
+      </c>
+      <c r="C38" s="1">
+        <v>175</v>
+      </c>
+      <c r="D38" s="1">
+        <v>175</v>
+      </c>
+      <c r="E38" s="1">
+        <v>50</v>
+      </c>
+      <c r="F38" s="1">
+        <v>40</v>
+      </c>
+      <c r="G38" s="1">
+        <v>30</v>
+      </c>
+      <c r="H38" s="10">
+        <v>350</v>
+      </c>
+      <c r="I38" s="1">
+        <v>10</v>
+      </c>
+      <c r="J38" s="1">
+        <v>5</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
         <v>1.3</v>
       </c>
-      <c r="D37" s="1">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1</v>
-      </c>
-      <c r="H37" s="8">
-        <v>1</v>
-      </c>
-      <c r="I37" s="1">
-        <v>1</v>
-      </c>
-      <c r="J37" s="1">
-        <v>1</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="H39" s="7"/>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="10">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
-      <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-    </row>
-    <row r="42" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F42" s="6" t="s">
+      <c r="A41" s="7"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H42" s="19"/>
-      <c r="J42" s="6" t="s">
+      <c r="E44" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H44" s="7"/>
+      <c r="H44" s="19"/>
+      <c r="J44" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="21">
-        <f>+B27/B33/B15/$B$3</f>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="21">
+        <f>+B29/B35/B15/$B$3</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="C45" s="21">
-        <f t="shared" ref="C45:J45" si="0">+C27/C33/C15/$B$3</f>
+      <c r="C47" s="21">
+        <f t="shared" ref="C47:J47" si="0">+C29/C35/C15/$B$3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D47" s="21">
         <f t="shared" si="0"/>
         <v>0.59999999999999987</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E47" s="21">
         <f t="shared" si="0"/>
         <v>4.4444444444444446</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F47" s="21">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G47" s="21">
         <f t="shared" si="0"/>
         <v>1.6666666666666665</v>
       </c>
-      <c r="H45" s="21">
+      <c r="H47" s="21">
         <f t="shared" si="0"/>
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="I45" s="21">
+        <v>8.5470085470085472E-2</v>
+      </c>
+      <c r="I47" s="21">
         <f t="shared" si="0"/>
         <v>3.333333333333333</v>
       </c>
-      <c r="J45" s="20">
+      <c r="J47" s="20">
         <f t="shared" si="0"/>
         <v>3.333333333333333</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47">
-        <f t="shared" ref="B47:G47" si="1">+B45*B22*$B$3*$B$2</f>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="24">
+        <f t="shared" ref="B49:G49" si="1">+B47*B24*$B$3*$B$2</f>
         <v>2400</v>
       </c>
-      <c r="C47">
+      <c r="C49" s="24">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="D47">
+      <c r="D49" s="24">
         <f t="shared" si="1"/>
         <v>2159.9999999999995</v>
       </c>
-      <c r="E47">
+      <c r="E49" s="24">
         <f t="shared" si="1"/>
         <v>24000</v>
       </c>
-      <c r="F47">
+      <c r="F49" s="24">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="G47">
+      <c r="G49" s="24">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="H47">
-        <f>+H45*H22*$B$3*$B$2</f>
-        <v>200</v>
-      </c>
-      <c r="I47">
-        <f t="shared" ref="I47:J47" si="2">+I45*I22*$B$3*$B$2</f>
+      <c r="H49" s="24">
+        <f>+H47*H24*$B$3*$B$2</f>
+        <v>615.38461538461547</v>
+      </c>
+      <c r="I49" s="24">
+        <f t="shared" ref="I49:J49" si="2">+I47*I24*$B$3*$B$2</f>
         <v>600</v>
       </c>
-      <c r="J47">
+      <c r="J49" s="24">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="7">
-        <f t="shared" ref="B48:G48" si="3">+B33*B45*$B$3*B15*B22</f>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="25">
+        <f t="shared" ref="B50:G50" si="3">+B35*B47*$B$3*B15*B24</f>
         <v>160</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C50" s="25">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D50" s="25">
         <f t="shared" si="3"/>
         <v>17.999999999999996</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E50" s="25">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F50" s="25">
         <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G50" s="25">
         <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
-      <c r="H48" s="7">
-        <f>+H33*H45*$B$3*H15*H22</f>
-        <v>20</v>
-      </c>
-      <c r="I48" s="7">
-        <f t="shared" ref="I48:J48" si="4">+I33*I45*$B$3*I15*I22</f>
+      <c r="H50" s="25">
+        <f>+H35*H47*$B$3*H15*H24</f>
+        <v>80</v>
+      </c>
+      <c r="I50" s="25">
+        <f t="shared" ref="I50:J50" si="4">+I35*I47*$B$3*I15*I24</f>
         <v>4</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J50" s="25">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>85</v>
-      </c>
-      <c r="B49" s="7">
-        <f t="shared" ref="B49:G49" si="5">+B27*B22</f>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="25">
+        <f t="shared" ref="B51:G51" si="5">+B29*B24</f>
         <v>160</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C51" s="25">
         <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D51" s="25">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E51" s="25">
         <f t="shared" si="5"/>
         <v>240</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F51" s="25">
         <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G51" s="25">
         <f t="shared" si="5"/>
         <v>1.6</v>
       </c>
-      <c r="H49" s="7">
-        <f>+H27*H22</f>
-        <v>20</v>
-      </c>
-      <c r="I49" s="7">
-        <f t="shared" ref="I49:J49" si="6">+I27*I22</f>
+      <c r="H51" s="25">
+        <f>+H29*H24</f>
+        <v>80</v>
+      </c>
+      <c r="I51" s="25">
+        <f t="shared" ref="I51:J51" si="6">+I29*I24</f>
         <v>4</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J51" s="25">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
@@ -2669,7 +2759,7 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B3D47E63-4CCF-498A-86C2-6290C49D352E}">
           <x14:formula1>
             <xm:f>Tables!$A$4:$A$21</xm:f>
@@ -2731,7 +2821,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -2739,7 +2829,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -2787,7 +2877,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14">
         <v>9</v>
@@ -2795,7 +2885,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -2803,7 +2893,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16">
         <v>11</v>
@@ -2811,7 +2901,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B17">
         <v>12</v>
@@ -2819,7 +2909,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>13</v>
@@ -2827,7 +2917,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19">
         <v>14</v>
@@ -2835,7 +2925,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>15</v>
@@ -2843,7 +2933,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21">
         <v>99</v>
@@ -2902,21 +2992,21 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" t="s">
-        <v>75</v>
-      </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2933,7 +3023,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B3">
         <v>1.5</v>
@@ -2950,7 +3040,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B4">
         <v>2.5</v>
@@ -2967,7 +3057,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B5">
         <v>9999999</v>
@@ -2984,19 +3074,19 @@
     </row>
     <row r="10" spans="1:7" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">

--- a/datafiles/genus.xlsx
+++ b/datafiles/genus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d641367ab90122e/_tec/codi/GM/Terraformer2D/datafiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{7DA26B0D-C8AE-4001-A03E-85F85492B8E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B30AC750-6ED6-4187-8845-563F6B44835C}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{7DA26B0D-C8AE-4001-A03E-85F85492B8E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6D872C3C-D5DE-4600-A0EC-B22FDF00854B}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="300" windowWidth="21540" windowHeight="19170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,7 +481,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -549,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -579,9 +578,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -592,6 +588,11 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1018,10 +1019,10 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
+      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,9 +1035,9 @@
       <c r="A1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="23">
+      <c r="B1" s="22">
         <f ca="1">NOW()</f>
-        <v>44323.655760300928</v>
+        <v>44325.979725810183</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1057,14 +1058,14 @@
       <c r="B3" s="1">
         <v>0.1</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1129,7 +1130,7 @@
       <c r="G6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="27" t="s">
         <v>83</v>
       </c>
       <c r="I6" s="11" t="s">
@@ -1158,7 +1159,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -1193,7 +1194,7 @@
         <f>VLOOKUP(G5,Tabla3[#All],2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="26">
         <f>VLOOKUP(H5,Tabla3[#All],2,FALSE)</f>
         <v>0</v>
       </c>
@@ -1246,7 +1247,7 @@
         <f>VLOOKUP(G6,Tabla1[#All],2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="26">
         <f>VLOOKUP(H6,Tabla1[#All],2,FALSE)</f>
         <v>12</v>
       </c>
@@ -1539,7 +1540,7 @@
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="9">
         <v>1</v>
       </c>
       <c r="I16">
@@ -1675,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -1716,7 +1717,7 @@
         <v>2</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -2003,7 +2004,7 @@
         <v>0.4</v>
       </c>
       <c r="L27">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M27">
         <v>0.4</v>
@@ -2085,7 +2086,7 @@
         <v>0.05</v>
       </c>
       <c r="L29" s="1">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="M29" s="1">
         <v>0.12</v>
@@ -2126,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M30" s="8">
         <v>0</v>
@@ -2167,7 +2168,7 @@
         <v>50</v>
       </c>
       <c r="L31" s="8">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M31" s="8">
         <v>50</v>
@@ -2195,7 +2196,7 @@
       <c r="G32" s="1">
         <v>0</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="10">
         <v>0</v>
       </c>
       <c r="I32" s="1">
@@ -2236,7 +2237,7 @@
       <c r="G33" s="10">
         <v>0.9</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="10">
         <v>0.7</v>
       </c>
       <c r="I33" s="10">
@@ -2277,7 +2278,7 @@
       <c r="G34" s="1">
         <v>0</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="10">
         <v>0</v>
       </c>
       <c r="I34" s="1">
@@ -2522,7 +2523,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="18"/>
+      <c r="H43" s="17"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -2539,7 +2540,7 @@
       <c r="F44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H44" s="19"/>
+      <c r="H44" s="18"/>
       <c r="J44" s="6" t="s">
         <v>50</v>
       </c>
@@ -2554,39 +2555,39 @@
       <c r="A47" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="21">
+      <c r="B47" s="20">
         <f>+B29/B35/B15/$B$3</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="20">
         <f t="shared" ref="C47:J47" si="0">+C29/C35/C15/$B$3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="20">
         <f t="shared" si="0"/>
         <v>0.59999999999999987</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="20">
         <f t="shared" si="0"/>
         <v>4.4444444444444446</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F47" s="20">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G47" s="21">
+      <c r="G47" s="20">
         <f t="shared" si="0"/>
         <v>1.6666666666666665</v>
       </c>
-      <c r="H47" s="21">
+      <c r="H47" s="20">
         <f t="shared" si="0"/>
         <v>8.5470085470085472E-2</v>
       </c>
-      <c r="I47" s="21">
+      <c r="I47" s="20">
         <f t="shared" si="0"/>
         <v>3.333333333333333</v>
       </c>
-      <c r="J47" s="20">
+      <c r="J47" s="19">
         <f t="shared" si="0"/>
         <v>3.333333333333333</v>
       </c>
@@ -2598,39 +2599,39 @@
       <c r="A49" t="s">
         <v>87</v>
       </c>
-      <c r="B49" s="24">
+      <c r="B49" s="23">
         <f t="shared" ref="B49:G49" si="1">+B47*B24*$B$3*$B$2</f>
         <v>2400</v>
       </c>
-      <c r="C49" s="24">
+      <c r="C49" s="23">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="D49" s="24">
+      <c r="D49" s="23">
         <f t="shared" si="1"/>
         <v>2159.9999999999995</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E49" s="23">
         <f t="shared" si="1"/>
         <v>24000</v>
       </c>
-      <c r="F49" s="24">
+      <c r="F49" s="23">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="G49" s="24">
+      <c r="G49" s="23">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="H49" s="24">
+      <c r="H49" s="23">
         <f>+H47*H24*$B$3*$B$2</f>
         <v>615.38461538461547</v>
       </c>
-      <c r="I49" s="24">
+      <c r="I49" s="23">
         <f t="shared" ref="I49:J49" si="2">+I47*I24*$B$3*$B$2</f>
         <v>600</v>
       </c>
-      <c r="J49" s="24">
+      <c r="J49" s="23">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
@@ -2639,39 +2640,39 @@
       <c r="A50" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="25">
+      <c r="B50" s="24">
         <f t="shared" ref="B50:G50" si="3">+B35*B47*$B$3*B15*B24</f>
         <v>160</v>
       </c>
-      <c r="C50" s="25">
+      <c r="C50" s="24">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="D50" s="25">
+      <c r="D50" s="24">
         <f t="shared" si="3"/>
         <v>17.999999999999996</v>
       </c>
-      <c r="E50" s="25">
+      <c r="E50" s="24">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="F50" s="25">
+      <c r="F50" s="24">
         <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="G50" s="25">
+      <c r="G50" s="24">
         <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
-      <c r="H50" s="25">
+      <c r="H50" s="24">
         <f>+H35*H47*$B$3*H15*H24</f>
         <v>80</v>
       </c>
-      <c r="I50" s="25">
+      <c r="I50" s="24">
         <f t="shared" ref="I50:J50" si="4">+I35*I47*$B$3*I15*I24</f>
         <v>4</v>
       </c>
-      <c r="J50" s="25">
+      <c r="J50" s="24">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -2680,39 +2681,39 @@
       <c r="A51" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="25">
+      <c r="B51" s="24">
         <f t="shared" ref="B51:G51" si="5">+B29*B24</f>
         <v>160</v>
       </c>
-      <c r="C51" s="25">
+      <c r="C51" s="24">
         <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
-      <c r="D51" s="25">
+      <c r="D51" s="24">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="E51" s="25">
+      <c r="E51" s="24">
         <f t="shared" si="5"/>
         <v>240</v>
       </c>
-      <c r="F51" s="25">
+      <c r="F51" s="24">
         <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
-      <c r="G51" s="25">
+      <c r="G51" s="24">
         <f t="shared" si="5"/>
         <v>1.6</v>
       </c>
-      <c r="H51" s="25">
+      <c r="H51" s="24">
         <f>+H29*H24</f>
         <v>80</v>
       </c>
-      <c r="I51" s="25">
+      <c r="I51" s="24">
         <f t="shared" ref="I51:J51" si="6">+I29*I24</f>
         <v>4</v>
       </c>
-      <c r="J51" s="25">
+      <c r="J51" s="24">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
@@ -2759,7 +2760,7 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B3D47E63-4CCF-498A-86C2-6290C49D352E}">
           <x14:formula1>
             <xm:f>Tables!$A$4:$A$21</xm:f>

--- a/datafiles/genus.xlsx
+++ b/datafiles/genus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d641367ab90122e/_tec/codi/GM/Terraformer2D/datafiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{7DA26B0D-C8AE-4001-A03E-85F85492B8E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6D872C3C-D5DE-4600-A0EC-B22FDF00854B}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{28B0AFDC-BCC3-475A-8C86-8E0ED1EF7BA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D1065056-ABDD-47AB-A527-A11BF24291A4}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="300" windowWidth="21540" windowHeight="19170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
   <si>
     <t>GEN_START</t>
   </si>
@@ -279,9 +279,6 @@
     <t>add_above_this</t>
   </si>
   <si>
-    <t>FREE_13</t>
-  </si>
-  <si>
     <t>FREE_14</t>
   </si>
   <si>
@@ -400,6 +397,12 @@
   </si>
   <si>
     <t>version</t>
+  </si>
+  <si>
+    <t>PRIMARY_TINY_2</t>
+  </si>
+  <si>
+    <t>Primary tiny 2</t>
   </si>
 </sst>
 </file>
@@ -486,7 +489,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,6 +538,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -548,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -566,9 +575,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -593,11 +599,37 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1016,58 +1048,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF56E24-D116-4545-8100-A73B8CF06CFE}">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="22">
+        <v>92</v>
+      </c>
+      <c r="B1" s="21">
         <f ca="1">NOW()</f>
-        <v>44325.979725810183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44327.047491087964</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="8">
         <v>180</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1">
         <v>0.1</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G3" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1105,10 +1139,13 @@
         <v>9</v>
       </c>
       <c r="M5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1119,37 +1156,40 @@
         <v>47</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="27" t="s">
         <v>41</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="27" t="s">
-        <v>83</v>
+      <c r="H6" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="13" t="s">
         <v>51</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="M6" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="N6" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -1159,14 +1199,15 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="25"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1194,7 +1235,7 @@
         <f>VLOOKUP(G5,Tabla3[#All],2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="25">
         <f>VLOOKUP(H5,Tabla3[#All],2,FALSE)</f>
         <v>0</v>
       </c>
@@ -1216,12 +1257,16 @@
       </c>
       <c r="M8" s="2">
         <f>VLOOKUP(M5,Tabla3[#All],2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <f>VLOOKUP(N5,Tabla3[#All],2,FALSE)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="2">
         <f>VLOOKUP(B6,Tabla1[#All],2,FALSE)</f>
@@ -1247,7 +1292,7 @@
         <f>VLOOKUP(G6,Tabla1[#All],2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="25">
         <f>VLOOKUP(H6,Tabla1[#All],2,FALSE)</f>
         <v>12</v>
       </c>
@@ -1269,51 +1314,58 @@
       </c>
       <c r="M9" s="2">
         <f>VLOOKUP(M6,Tabla1[#All],2,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="N9" s="2">
+        <f>VLOOKUP(N6,Tabla1[#All],2,FALSE)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:14" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="D10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="H10" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J10" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1353,8 +1405,11 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1394,10 +1449,13 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13">
         <v>-1</v>
@@ -1435,8 +1493,11 @@
       <c r="M13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1476,10 +1537,13 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15">
         <v>30</v>
@@ -1517,8 +1581,11 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>38</v>
       </c>
@@ -1558,8 +1625,11 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1599,8 +1669,11 @@
       <c r="M17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1638,10 +1711,13 @@
         <v>0.3</v>
       </c>
       <c r="M18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.3</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1676,13 +1752,16 @@
         <v>1</v>
       </c>
       <c r="L19">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1720,12 +1799,15 @@
         <v>3</v>
       </c>
       <c r="M20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1763,10 +1845,13 @@
       <c r="M21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -1804,8 +1889,11 @@
       <c r="M22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1840,13 +1928,16 @@
         <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M23">
+        <v>0.2</v>
+      </c>
+      <c r="N23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1884,12 +1975,15 @@
         <v>5</v>
       </c>
       <c r="M24">
+        <v>7</v>
+      </c>
+      <c r="N24">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1925,10 +2019,13 @@
         <v>0.4</v>
       </c>
       <c r="M25">
+        <v>0.4</v>
+      </c>
+      <c r="N25">
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>27</v>
       </c>
@@ -1966,10 +2063,13 @@
         <v>0.2</v>
       </c>
       <c r="M26">
+        <v>0.3</v>
+      </c>
+      <c r="N26">
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -2007,10 +2107,13 @@
         <v>0.2</v>
       </c>
       <c r="M27">
+        <v>0.2</v>
+      </c>
+      <c r="N27">
         <v>0.4</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -2048,12 +2151,15 @@
         <v>0.1</v>
       </c>
       <c r="M28">
+        <v>0.3</v>
+      </c>
+      <c r="N28">
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="1">
         <v>0.2</v>
@@ -2089,10 +2195,13 @@
         <v>0.05</v>
       </c>
       <c r="M29" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N29" s="1">
         <v>0.12</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -2130,10 +2239,13 @@
         <v>15</v>
       </c>
       <c r="M30" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="N30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -2171,53 +2283,59 @@
         <v>15</v>
       </c>
       <c r="M31" s="8">
+        <v>15</v>
+      </c>
+      <c r="N31" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="10">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0</v>
-      </c>
-      <c r="L32" s="1">
-        <v>0</v>
-      </c>
-      <c r="M32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="B33" s="10">
         <v>0.9</v>
@@ -2255,10 +2373,13 @@
       <c r="M33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
@@ -2296,8 +2417,11 @@
       <c r="M34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2337,8 +2461,11 @@
       <c r="M35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2378,8 +2505,11 @@
       <c r="M36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2419,8 +2549,11 @@
       <c r="M37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2460,8 +2593,11 @@
       <c r="M38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2501,19 +2637,22 @@
       <c r="M39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>1</v>
       </c>
@@ -2523,237 +2662,244 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="17"/>
+      <c r="H43" s="16"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
-    </row>
-    <row r="44" spans="1:13" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="1:14" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H44" s="18"/>
+      <c r="H44" s="17"/>
       <c r="J44" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47" s="19">
         <f>+B29/B35/B15/$B$3</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="19">
         <f t="shared" ref="C47:J47" si="0">+C29/C35/C15/$B$3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="19">
         <f t="shared" si="0"/>
         <v>0.59999999999999987</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="19">
         <f t="shared" si="0"/>
         <v>4.4444444444444446</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F47" s="19">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G47" s="20">
+      <c r="G47" s="19">
         <f t="shared" si="0"/>
         <v>1.6666666666666665</v>
       </c>
-      <c r="H47" s="20">
+      <c r="H47" s="19">
         <f t="shared" si="0"/>
         <v>8.5470085470085472E-2</v>
       </c>
-      <c r="I47" s="20">
+      <c r="I47" s="19">
         <f t="shared" si="0"/>
         <v>3.333333333333333</v>
       </c>
-      <c r="J47" s="19">
+      <c r="J47" s="18">
         <f t="shared" si="0"/>
         <v>3.333333333333333</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="23">
+        <v>86</v>
+      </c>
+      <c r="B49" s="22">
         <f t="shared" ref="B49:G49" si="1">+B47*B24*$B$3*$B$2</f>
         <v>2400</v>
       </c>
-      <c r="C49" s="23">
+      <c r="C49" s="22">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="22">
         <f t="shared" si="1"/>
         <v>2159.9999999999995</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="22">
         <f t="shared" si="1"/>
         <v>24000</v>
       </c>
-      <c r="F49" s="23">
+      <c r="F49" s="22">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="G49" s="23">
+      <c r="G49" s="22">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="H49" s="23">
+      <c r="H49" s="22">
         <f>+H47*H24*$B$3*$B$2</f>
         <v>615.38461538461547</v>
       </c>
-      <c r="I49" s="23">
+      <c r="I49" s="22">
         <f t="shared" ref="I49:J49" si="2">+I47*I24*$B$3*$B$2</f>
         <v>600</v>
       </c>
-      <c r="J49" s="23">
+      <c r="J49" s="22">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" s="24">
+        <v>88</v>
+      </c>
+      <c r="B50" s="23">
         <f t="shared" ref="B50:G50" si="3">+B35*B47*$B$3*B15*B24</f>
         <v>160</v>
       </c>
-      <c r="C50" s="24">
+      <c r="C50" s="23">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="D50" s="24">
+      <c r="D50" s="23">
         <f t="shared" si="3"/>
         <v>17.999999999999996</v>
       </c>
-      <c r="E50" s="24">
+      <c r="E50" s="23">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="F50" s="24">
+      <c r="F50" s="23">
         <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="G50" s="24">
+      <c r="G50" s="23">
         <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
-      <c r="H50" s="24">
+      <c r="H50" s="23">
         <f>+H35*H47*$B$3*H15*H24</f>
         <v>80</v>
       </c>
-      <c r="I50" s="24">
+      <c r="I50" s="23">
         <f t="shared" ref="I50:J50" si="4">+I35*I47*$B$3*I15*I24</f>
         <v>4</v>
       </c>
-      <c r="J50" s="24">
+      <c r="J50" s="23">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>86</v>
-      </c>
-      <c r="B51" s="24">
+        <v>85</v>
+      </c>
+      <c r="B51" s="23">
         <f t="shared" ref="B51:G51" si="5">+B29*B24</f>
         <v>160</v>
       </c>
-      <c r="C51" s="24">
+      <c r="C51" s="23">
         <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
-      <c r="D51" s="24">
+      <c r="D51" s="23">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="E51" s="24">
+      <c r="E51" s="23">
         <f t="shared" si="5"/>
         <v>240</v>
       </c>
-      <c r="F51" s="24">
+      <c r="F51" s="23">
         <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
-      <c r="G51" s="24">
+      <c r="G51" s="23">
         <f t="shared" si="5"/>
         <v>1.6</v>
       </c>
-      <c r="H51" s="24">
+      <c r="H51" s="23">
         <f>+H29*H24</f>
         <v>80</v>
       </c>
-      <c r="I51" s="24">
+      <c r="I51" s="23">
         <f t="shared" ref="I51:J51" si="6">+I29*I24</f>
         <v>4</v>
       </c>
-      <c r="J51" s="24">
+      <c r="J51" s="23">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="L6">
+    <cfRule type="duplicateValues" dxfId="13" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6">
+    <cfRule type="duplicateValues" dxfId="12" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
     <cfRule type="duplicateValues" dxfId="11" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6">
+  <conditionalFormatting sqref="J6:L6 E6:G6 B6:C6 N6">
     <cfRule type="duplicateValues" dxfId="10" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="9" priority="19"/>
+  <conditionalFormatting sqref="G6 J6:K6 B6:C6 E6">
+    <cfRule type="duplicateValues" dxfId="9" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:M6 E6:G6 B6:C6">
+  <conditionalFormatting sqref="I6">
     <cfRule type="duplicateValues" dxfId="8" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6 J6:K6 B6:C6 E6">
-    <cfRule type="duplicateValues" dxfId="7" priority="26"/>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="duplicateValues" dxfId="7" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
+  <conditionalFormatting sqref="D6">
     <cfRule type="duplicateValues" dxfId="6" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
+  <conditionalFormatting sqref="D6">
     <cfRule type="duplicateValues" dxfId="5" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="4" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="3" priority="15"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="2" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2765,13 +2911,13 @@
           <x14:formula1>
             <xm:f>Tables!$A$4:$A$21</xm:f>
           </x14:formula1>
-          <xm:sqref>B6:M6</xm:sqref>
+          <xm:sqref>B6:N6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{62DCFE51-E5A0-46C0-BA78-677466E1BE10}">
           <x14:formula1>
             <xm:f>Tables!$A$27:$A$30</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:M5</xm:sqref>
+          <xm:sqref>B5:N5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2784,7 +2930,7 @@
   <dimension ref="A4:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2830,7 +2976,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -2894,7 +3040,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16">
         <v>11</v>
@@ -2902,7 +3048,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17">
         <v>12</v>
@@ -2910,7 +3056,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="B18">
         <v>13</v>
@@ -2918,7 +3064,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>14</v>
@@ -2926,7 +3072,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20">
         <v>15</v>
@@ -2993,21 +3139,21 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" t="s">
         <v>77</v>
-      </c>
-      <c r="E1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3024,7 +3170,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3">
         <v>1.5</v>
@@ -3041,7 +3187,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4">
         <v>2.5</v>
@@ -3058,7 +3204,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5">
         <v>9999999</v>
@@ -3078,23 +3224,23 @@
         <v>33</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>75</v>
+        <v>62</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>0.4</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>0.2</v>
       </c>
       <c r="E11">
@@ -3106,7 +3252,7 @@
       <c r="B12">
         <v>0.01</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>0.01</v>
       </c>
       <c r="E12">
@@ -3118,7 +3264,7 @@
       <c r="B13">
         <v>0.05</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>0.09</v>
       </c>
       <c r="E13">
@@ -3130,7 +3276,7 @@
       <c r="B14">
         <v>0.06</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>0.8</v>
       </c>
       <c r="E14">
@@ -3142,7 +3288,7 @@
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>0.1</v>
       </c>
       <c r="E15">
@@ -3154,7 +3300,7 @@
       <c r="B16">
         <v>0.04</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <v>0.2</v>
       </c>
       <c r="E16">
@@ -3166,7 +3312,7 @@
       <c r="B17">
         <v>0.04</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <v>0.4</v>
       </c>
       <c r="E17">
@@ -3178,7 +3324,7 @@
       <c r="B18">
         <v>0.04</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <v>0.4</v>
       </c>
       <c r="E18">

--- a/datafiles/genus.xlsx
+++ b/datafiles/genus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d641367ab90122e/_tec/codi/GM/Terraformer2D/datafiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{28B0AFDC-BCC3-475A-8C86-8E0ED1EF7BA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D1065056-ABDD-47AB-A527-A11BF24291A4}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{28B0AFDC-BCC3-475A-8C86-8E0ED1EF7BA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{31EE5506-B7C2-48E3-9D00-A4B092FAF7FA}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="300" windowWidth="21540" windowHeight="19170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
   <si>
     <t>GEN_START</t>
   </si>
@@ -207,9 +207,6 @@
     <t>SPECIE_CODE</t>
   </si>
   <si>
-    <t>ANIMAL_ANABOLISM_BIOMASS_CONVERSION</t>
-  </si>
-  <si>
     <t>BIOMASS_BIRTH</t>
   </si>
   <si>
@@ -403,6 +400,12 @@
   </si>
   <si>
     <t>Primary tiny 2</t>
+  </si>
+  <si>
+    <t>KA_ANABOLISM_FACTOR</t>
+  </si>
+  <si>
+    <t>EMPTY14</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -588,7 +591,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1051,10 +1053,10 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,44 +1068,44 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="21">
+        <v>91</v>
+      </c>
+      <c r="B1" s="20">
         <f ca="1">NOW()</f>
-        <v>44327.047491087964</v>
+        <v>44328.150702662038</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="8">
         <v>180</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="1">
         <v>0.1</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
+      <c r="G3" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>8</v>
@@ -1147,34 +1149,34 @@
     </row>
     <row r="6" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>41</v>
+        <v>58</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="26" t="s">
-        <v>82</v>
+      <c r="H6" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>15</v>
@@ -1183,7 +1185,7 @@
         <v>14</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N6" s="11" t="s">
         <v>3</v>
@@ -1199,7 +1201,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="24"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -1235,7 +1237,7 @@
         <f>VLOOKUP(G5,Tabla3[#All],2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="24">
         <f>VLOOKUP(H5,Tabla3[#All],2,FALSE)</f>
         <v>0</v>
       </c>
@@ -1266,7 +1268,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="2">
         <f>VLOOKUP(B6,Tabla1[#All],2,FALSE)</f>
@@ -1292,7 +1294,7 @@
         <f>VLOOKUP(G6,Tabla1[#All],2,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="24">
         <f>VLOOKUP(H6,Tabla1[#All],2,FALSE)</f>
         <v>12</v>
       </c>
@@ -1323,34 +1325,34 @@
     </row>
     <row r="10" spans="1:14" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="28" t="s">
-        <v>83</v>
+      <c r="H10" s="27" t="s">
+        <v>82</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>19</v>
@@ -1359,7 +1361,7 @@
         <v>20</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>21</v>
@@ -1455,7 +1457,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13">
         <v>-1</v>
@@ -1543,7 +1545,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15">
         <v>30</v>
@@ -1587,7 +1589,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1763,7 +1765,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1807,7 +1809,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1851,7 +1853,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -1895,7 +1897,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -1939,7 +1941,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>800</v>
@@ -1983,7 +1985,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2071,7 +2073,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27">
         <v>0.4</v>
@@ -2115,34 +2117,34 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28" s="9">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H28" s="10">
+        <v>0.17</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.04</v>
       </c>
       <c r="K28" s="7">
         <v>0.3</v>
@@ -2159,7 +2161,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1">
         <v>0.2</v>
@@ -2203,7 +2205,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1">
         <v>30</v>
@@ -2247,7 +2249,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="1">
         <v>15</v>
@@ -2291,7 +2293,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
@@ -2335,7 +2337,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33" s="10">
         <v>0.9</v>
@@ -2379,7 +2381,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
@@ -2422,52 +2424,52 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="H35" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
+      <c r="A35" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0</v>
+      </c>
+      <c r="M35" s="7">
+        <v>0</v>
+      </c>
+      <c r="N35" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1">
         <v>1600</v>
@@ -2511,7 +2513,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1">
         <v>1.2</v>
@@ -2555,7 +2557,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="1">
         <v>50</v>
@@ -2599,7 +2601,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1">
         <v>1</v>
@@ -2672,17 +2674,17 @@
     </row>
     <row r="44" spans="1:14" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="H44" s="17"/>
       <c r="J44" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -2693,37 +2695,37 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="19">
-        <f>+B29/B35/B15/$B$3</f>
+        <v>41</v>
+      </c>
+      <c r="B47" s="18">
+        <f>+B29/B28/B15/$B$3</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="C47" s="19">
-        <f t="shared" ref="C47:J47" si="0">+C29/C35/C15/$B$3</f>
+      <c r="C47" s="18">
+        <f t="shared" ref="C47:N47" si="0">+C29/C28/C15/$B$3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="18">
         <f t="shared" si="0"/>
         <v>0.59999999999999987</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47" s="18">
         <f t="shared" si="0"/>
         <v>4.4444444444444446</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F47" s="18">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G47" s="18">
         <f t="shared" si="0"/>
         <v>1.6666666666666665</v>
       </c>
-      <c r="H47" s="19">
+      <c r="H47" s="18">
         <f t="shared" si="0"/>
-        <v>8.5470085470085472E-2</v>
-      </c>
-      <c r="I47" s="19">
+        <v>6.535947712418301E-2</v>
+      </c>
+      <c r="I47" s="18">
         <f t="shared" si="0"/>
         <v>3.333333333333333</v>
       </c>
@@ -2731,130 +2733,146 @@
         <f t="shared" si="0"/>
         <v>3.333333333333333</v>
       </c>
+      <c r="K47" s="18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L47" s="18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M47" s="18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N47" s="18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="22">
+        <v>85</v>
+      </c>
+      <c r="B49" s="21">
         <f t="shared" ref="B49:G49" si="1">+B47*B24*$B$3*$B$2</f>
         <v>2400</v>
       </c>
-      <c r="C49" s="22">
+      <c r="C49" s="21">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="21">
         <f t="shared" si="1"/>
         <v>2159.9999999999995</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E49" s="21">
         <f t="shared" si="1"/>
         <v>24000</v>
       </c>
-      <c r="F49" s="22">
+      <c r="F49" s="21">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="G49" s="22">
+      <c r="G49" s="21">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="H49" s="22">
+      <c r="H49" s="21">
         <f>+H47*H24*$B$3*$B$2</f>
-        <v>615.38461538461547</v>
-      </c>
-      <c r="I49" s="22">
+        <v>470.58823529411774</v>
+      </c>
+      <c r="I49" s="21">
         <f t="shared" ref="I49:J49" si="2">+I47*I24*$B$3*$B$2</f>
         <v>600</v>
       </c>
-      <c r="J49" s="22">
+      <c r="J49" s="21">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="23">
-        <f t="shared" ref="B50:G50" si="3">+B35*B47*$B$3*B15*B24</f>
+        <v>87</v>
+      </c>
+      <c r="B50" s="22">
+        <f>+B28*B47*$B$3*B15*B24</f>
         <v>160</v>
       </c>
-      <c r="C50" s="23">
-        <f t="shared" si="3"/>
+      <c r="C50" s="22">
+        <f t="shared" ref="C50:J50" si="3">+C28*C47*$B$3*C15*C24</f>
         <v>2.5</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D50" s="22">
         <f t="shared" si="3"/>
         <v>17.999999999999996</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E50" s="22">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="F50" s="23">
+      <c r="F50" s="22">
         <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="G50" s="23">
+      <c r="G50" s="22">
         <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
-      <c r="H50" s="23">
-        <f>+H35*H47*$B$3*H15*H24</f>
-        <v>80</v>
-      </c>
-      <c r="I50" s="23">
-        <f t="shared" ref="I50:J50" si="4">+I35*I47*$B$3*I15*I24</f>
+      <c r="H50" s="22">
+        <f t="shared" si="3"/>
+        <v>80.000000000000014</v>
+      </c>
+      <c r="I50" s="22">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="J50" s="23">
-        <f t="shared" si="4"/>
+      <c r="J50" s="22">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>85</v>
-      </c>
-      <c r="B51" s="23">
-        <f t="shared" ref="B51:G51" si="5">+B29*B24</f>
+        <v>84</v>
+      </c>
+      <c r="B51" s="22">
+        <f t="shared" ref="B51:G51" si="4">+B29*B24</f>
         <v>160</v>
       </c>
-      <c r="C51" s="23">
-        <f t="shared" si="5"/>
+      <c r="C51" s="22">
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="D51" s="23">
-        <f t="shared" si="5"/>
+      <c r="D51" s="22">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="E51" s="23">
-        <f t="shared" si="5"/>
+      <c r="E51" s="22">
+        <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="F51" s="23">
-        <f t="shared" si="5"/>
+      <c r="F51" s="22">
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="G51" s="23">
-        <f t="shared" si="5"/>
+      <c r="G51" s="22">
+        <f t="shared" si="4"/>
         <v>1.6</v>
       </c>
-      <c r="H51" s="23">
+      <c r="H51" s="22">
         <f>+H29*H24</f>
         <v>80</v>
       </c>
-      <c r="I51" s="23">
-        <f t="shared" ref="I51:J51" si="6">+I29*I24</f>
+      <c r="I51" s="22">
+        <f t="shared" ref="I51:J51" si="5">+I29*I24</f>
         <v>4</v>
       </c>
-      <c r="J51" s="23">
-        <f t="shared" si="6"/>
+      <c r="J51" s="22">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -2968,7 +2986,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -2976,7 +2994,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -3024,7 +3042,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>9</v>
@@ -3032,7 +3050,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -3040,7 +3058,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16">
         <v>11</v>
@@ -3048,7 +3066,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17">
         <v>12</v>
@@ -3056,7 +3074,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18">
         <v>13</v>
@@ -3064,7 +3082,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19">
         <v>14</v>
@@ -3072,7 +3090,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>15</v>
@@ -3080,7 +3098,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21">
         <v>99</v>
@@ -3139,21 +3157,21 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
         <v>76</v>
-      </c>
-      <c r="E1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3170,7 +3188,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3">
         <v>1.5</v>
@@ -3187,7 +3205,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4">
         <v>2.5</v>
@@ -3204,7 +3222,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5">
         <v>9999999</v>
@@ -3221,19 +3239,19 @@
     </row>
     <row r="10" spans="1:7" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">

--- a/datafiles/genus.xlsx
+++ b/datafiles/genus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d641367ab90122e/_tec/codi/GM/Terraformer2D/datafiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{28B0AFDC-BCC3-475A-8C86-8E0ED1EF7BA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{31EE5506-B7C2-48E3-9D00-A4B092FAF7FA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE17A092-BE50-4D43-A04C-5A5E79A74835}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="300" windowWidth="21540" windowHeight="19170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <author>Ricard Dalmau</author>
   </authors>
   <commentList>
-    <comment ref="A28" authorId="0" shapeId="0" xr:uid="{DF3650A6-B6C2-45A8-9464-2BF746300551}">
+    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{DF3650A6-B6C2-45A8-9464-2BF746300551}">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A32" authorId="0" shapeId="0" xr:uid="{6EC34207-E0B4-452E-B700-5C4500558972}">
+    <comment ref="A29" authorId="0" shapeId="0" xr:uid="{6EC34207-E0B4-452E-B700-5C4500558972}">
       <text>
         <r>
           <rPr>
@@ -89,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A40" authorId="0" shapeId="0" xr:uid="{AC5AF4F0-BD59-4DF7-A2B9-16AAD27ECE38}">
+    <comment ref="A39" authorId="0" shapeId="0" xr:uid="{AC5AF4F0-BD59-4DF7-A2B9-16AAD27ECE38}">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="95">
   <si>
     <t>GEN_START</t>
   </si>
@@ -189,9 +189,6 @@
     <t>PARENT_SPECIE_CODE</t>
   </si>
   <si>
-    <t>EMPTY6</t>
-  </si>
-  <si>
     <t>AGE_DEAD</t>
   </si>
   <si>
@@ -207,9 +204,6 @@
     <t>SPECIE_CODE</t>
   </si>
   <si>
-    <t>BIOMASS_BIRTH</t>
-  </si>
-  <si>
     <t>BIOMASS_ADULT</t>
   </si>
   <si>
@@ -406,6 +400,9 @@
   </si>
   <si>
     <t>EMPTY14</t>
+  </si>
+  <si>
+    <t>DEPRECATED_BIOMASS_BIRTH</t>
   </si>
 </sst>
 </file>
@@ -548,7 +545,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -556,11 +553,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -607,6 +656,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1050,13 +1106,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF56E24-D116-4545-8100-A73B8CF06CFE}">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomRight" activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,33 +1124,33 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="20">
         <f ca="1">NOW()</f>
-        <v>44328.150702662038</v>
+        <v>44329.328443055558</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="8">
         <v>180</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1">
         <v>0.1</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
@@ -1105,7 +1161,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>8</v>
@@ -1149,34 +1205,34 @@
     </row>
     <row r="6" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>15</v>
@@ -1185,7 +1241,7 @@
         <v>14</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N6" s="11" t="s">
         <v>3</v>
@@ -1268,7 +1324,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2">
         <f>VLOOKUP(B6,Tabla1[#All],2,FALSE)</f>
@@ -1325,34 +1381,34 @@
     </row>
     <row r="10" spans="1:14" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="F10" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>19</v>
@@ -1361,7 +1417,7 @@
         <v>20</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>21</v>
@@ -1369,7 +1425,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1457,7 +1513,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B13">
         <v>-1</v>
@@ -1500,35 +1556,35 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
+      <c r="A14" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H14" s="9">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1545,1334 +1601,1290 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E15">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15">
         <v>3</v>
       </c>
-      <c r="G15">
-        <v>30</v>
-      </c>
       <c r="H15" s="9">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="J15">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>37</v>
+      <c r="A16" s="28" t="s">
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="9">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
+      <c r="A17" s="29" t="s">
+        <v>25</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="G17">
+        <v>64</v>
+      </c>
+      <c r="H17" s="9">
+        <v>64</v>
+      </c>
+      <c r="I17">
+        <v>64</v>
+      </c>
+      <c r="J17">
+        <v>64</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>32</v>
+      </c>
+      <c r="M17">
+        <v>32</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18" s="9">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
         <v>3</v>
       </c>
-      <c r="H17" s="9">
+      <c r="M18">
         <v>3</v>
       </c>
-      <c r="I17">
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20">
         <v>3</v>
       </c>
-      <c r="J17">
+      <c r="C20">
         <v>3</v>
       </c>
-      <c r="K17">
-        <v>4</v>
-      </c>
-      <c r="L17">
+      <c r="D20">
         <v>3</v>
       </c>
-      <c r="M17">
-        <v>7</v>
-      </c>
-      <c r="N17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" s="9">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>0.3</v>
-      </c>
-      <c r="L18">
-        <v>0.3</v>
-      </c>
-      <c r="M18">
-        <v>0.3</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19">
-        <v>64</v>
-      </c>
-      <c r="C19">
-        <v>64</v>
-      </c>
-      <c r="D19">
-        <v>128</v>
-      </c>
-      <c r="E19">
-        <v>128</v>
-      </c>
-      <c r="F19">
-        <v>64</v>
-      </c>
-      <c r="G19">
-        <v>64</v>
-      </c>
-      <c r="H19" s="9">
-        <v>64</v>
-      </c>
-      <c r="I19">
-        <v>64</v>
-      </c>
-      <c r="J19">
-        <v>64</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>32</v>
-      </c>
-      <c r="M19">
-        <v>32</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H20" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>800</v>
+      </c>
+      <c r="C21">
+        <v>250</v>
+      </c>
+      <c r="D21">
+        <v>200</v>
+      </c>
+      <c r="E21">
+        <v>300</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21" s="9">
+        <v>400</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <v>7</v>
+      </c>
+      <c r="N21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0.2</v>
+      </c>
+      <c r="L22">
+        <v>0.4</v>
+      </c>
+      <c r="M22">
+        <v>0.4</v>
+      </c>
+      <c r="N22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>0.1</v>
+      </c>
+      <c r="C23">
+        <v>0.1</v>
+      </c>
+      <c r="D23">
+        <v>0.1</v>
+      </c>
+      <c r="E23">
+        <v>0.1</v>
+      </c>
+      <c r="F23">
+        <v>0.2</v>
+      </c>
+      <c r="G23">
+        <v>0.1</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="I23">
+        <v>0.1</v>
+      </c>
+      <c r="J23">
+        <v>0.1</v>
+      </c>
+      <c r="K23">
+        <v>0.2</v>
+      </c>
+      <c r="L23">
+        <v>0.2</v>
+      </c>
+      <c r="M23">
+        <v>0.3</v>
+      </c>
+      <c r="N23">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <v>0.4</v>
+      </c>
+      <c r="C24">
+        <v>0.4</v>
+      </c>
+      <c r="D24">
+        <v>0.4</v>
+      </c>
+      <c r="E24">
+        <v>0.4</v>
+      </c>
+      <c r="F24">
+        <v>0.4</v>
+      </c>
+      <c r="G24">
+        <v>0.4</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="I24">
+        <v>0.4</v>
+      </c>
+      <c r="J24">
+        <v>0.4</v>
+      </c>
+      <c r="K24">
+        <v>0.4</v>
+      </c>
+      <c r="L24">
+        <v>0.2</v>
+      </c>
+      <c r="M24">
+        <v>0.4</v>
+      </c>
+      <c r="N24">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0.17</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="L25">
+        <v>0.1</v>
+      </c>
+      <c r="M25">
+        <v>0.3</v>
+      </c>
+      <c r="N25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K26" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1">
+        <v>30</v>
+      </c>
+      <c r="C27" s="1">
+        <v>24</v>
+      </c>
+      <c r="D27" s="1">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1">
+        <v>5</v>
+      </c>
+      <c r="F27" s="1">
+        <v>20</v>
+      </c>
+      <c r="G27" s="1">
+        <v>25</v>
+      </c>
+      <c r="H27" s="10">
+        <v>20</v>
+      </c>
+      <c r="I27" s="1">
+        <v>20</v>
+      </c>
+      <c r="J27" s="1">
+        <v>-10</v>
+      </c>
+      <c r="K27" s="8">
+        <v>0</v>
+      </c>
+      <c r="L27" s="8">
+        <v>15</v>
+      </c>
+      <c r="M27" s="8">
+        <v>15</v>
+      </c>
+      <c r="N27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="1">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1">
         <v>3</v>
       </c>
-      <c r="M20">
+      <c r="D28" s="10">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1">
+        <v>10</v>
+      </c>
+      <c r="G28" s="1">
+        <v>6</v>
+      </c>
+      <c r="H28" s="10">
+        <v>10</v>
+      </c>
+      <c r="I28" s="1">
+        <v>5</v>
+      </c>
+      <c r="J28" s="1">
+        <v>20</v>
+      </c>
+      <c r="K28" s="8">
+        <v>50</v>
+      </c>
+      <c r="L28" s="8">
+        <v>15</v>
+      </c>
+      <c r="M28" s="8">
+        <v>15</v>
+      </c>
+      <c r="N28" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="10">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="H30" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="J30" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1600</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>400</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="10">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>50</v>
+      </c>
+      <c r="C34" s="1">
+        <v>175</v>
+      </c>
+      <c r="D34" s="1">
+        <v>175</v>
+      </c>
+      <c r="E34" s="1">
+        <v>50</v>
+      </c>
+      <c r="F34" s="1">
+        <v>40</v>
+      </c>
+      <c r="G34" s="1">
+        <v>30</v>
+      </c>
+      <c r="H34" s="10">
+        <v>350</v>
+      </c>
+      <c r="I34" s="1">
+        <v>10</v>
+      </c>
+      <c r="J34" s="1">
+        <v>5</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="10">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7">
+        <v>0</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0</v>
+      </c>
+      <c r="L36" s="7">
+        <v>0</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" s="9">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="7">
         <v>3</v>
       </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
+      <c r="C38" s="7">
+        <v>5</v>
+      </c>
+      <c r="D38" s="7">
+        <v>5</v>
+      </c>
+      <c r="E38" s="7">
+        <v>5</v>
+      </c>
+      <c r="F38" s="7">
+        <v>4</v>
+      </c>
+      <c r="G38" s="7">
+        <v>4</v>
+      </c>
+      <c r="H38" s="7">
+        <v>200</v>
+      </c>
+      <c r="I38" s="7">
+        <v>4</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K38" s="7">
         <v>2</v>
       </c>
-      <c r="L21">
-        <v>2</v>
-      </c>
-      <c r="M21">
-        <v>2</v>
-      </c>
-      <c r="N21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" s="9">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>2</v>
-      </c>
-      <c r="M22">
-        <v>2</v>
-      </c>
-      <c r="N22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23">
+      <c r="L38" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="N38" s="7">
         <v>5</v>
       </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23">
-        <v>5</v>
-      </c>
-      <c r="F23">
-        <v>4</v>
-      </c>
-      <c r="G23">
-        <v>4</v>
-      </c>
-      <c r="H23" s="9">
-        <v>200</v>
-      </c>
-      <c r="I23">
-        <v>4</v>
-      </c>
-      <c r="J23">
-        <v>0.2</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>0.5</v>
-      </c>
-      <c r="M23">
-        <v>0.2</v>
-      </c>
-      <c r="N23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24">
-        <v>800</v>
-      </c>
-      <c r="C24">
-        <v>250</v>
-      </c>
-      <c r="D24">
-        <v>200</v>
-      </c>
-      <c r="E24">
-        <v>300</v>
-      </c>
-      <c r="F24">
-        <v>8</v>
-      </c>
-      <c r="G24">
-        <v>8</v>
-      </c>
-      <c r="H24" s="9">
-        <v>400</v>
-      </c>
-      <c r="I24">
-        <v>10</v>
-      </c>
-      <c r="J24">
-        <v>10</v>
-      </c>
-      <c r="K24">
-        <v>10</v>
-      </c>
-      <c r="L24">
-        <v>5</v>
-      </c>
-      <c r="M24">
-        <v>7</v>
-      </c>
-      <c r="N24">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" s="9">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0.2</v>
-      </c>
-      <c r="L25">
-        <v>0.4</v>
-      </c>
-      <c r="M25">
-        <v>0.4</v>
-      </c>
-      <c r="N25">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26">
-        <v>0.1</v>
-      </c>
-      <c r="C26">
-        <v>0.1</v>
-      </c>
-      <c r="D26">
-        <v>0.1</v>
-      </c>
-      <c r="E26">
-        <v>0.1</v>
-      </c>
-      <c r="F26">
-        <v>0.2</v>
-      </c>
-      <c r="G26">
-        <v>0.1</v>
-      </c>
-      <c r="H26" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="I26">
-        <v>0.1</v>
-      </c>
-      <c r="J26">
-        <v>0.1</v>
-      </c>
-      <c r="K26">
-        <v>0.2</v>
-      </c>
-      <c r="L26">
-        <v>0.2</v>
-      </c>
-      <c r="M26">
-        <v>0.3</v>
-      </c>
-      <c r="N26">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27">
-        <v>0.4</v>
-      </c>
-      <c r="C27">
-        <v>0.4</v>
-      </c>
-      <c r="D27">
-        <v>0.4</v>
-      </c>
-      <c r="E27">
-        <v>0.4</v>
-      </c>
-      <c r="F27">
-        <v>0.4</v>
-      </c>
-      <c r="G27">
-        <v>0.4</v>
-      </c>
-      <c r="H27" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="I27">
-        <v>0.4</v>
-      </c>
-      <c r="J27">
-        <v>0.4</v>
-      </c>
-      <c r="K27">
-        <v>0.4</v>
-      </c>
-      <c r="L27">
-        <v>0.2</v>
-      </c>
-      <c r="M27">
-        <v>0.2</v>
-      </c>
-      <c r="N27">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="H28" s="10">
-        <v>0.17</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="K28" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="L28">
-        <v>0.1</v>
-      </c>
-      <c r="M28">
-        <v>0.3</v>
-      </c>
-      <c r="N28">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="H29" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="K29" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="L29" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="M29" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="N29" s="1">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="1">
-        <v>30</v>
-      </c>
-      <c r="C30" s="1">
-        <v>24</v>
-      </c>
-      <c r="D30" s="1">
-        <v>15</v>
-      </c>
-      <c r="E30" s="1">
-        <v>5</v>
-      </c>
-      <c r="F30" s="1">
-        <v>20</v>
-      </c>
-      <c r="G30" s="1">
-        <v>25</v>
-      </c>
-      <c r="H30" s="10">
-        <v>20</v>
-      </c>
-      <c r="I30" s="1">
-        <v>20</v>
-      </c>
-      <c r="J30" s="1">
-        <v>-10</v>
-      </c>
-      <c r="K30" s="8">
-        <v>0</v>
-      </c>
-      <c r="L30" s="8">
-        <v>15</v>
-      </c>
-      <c r="M30" s="8">
-        <v>15</v>
-      </c>
-      <c r="N30" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="1">
-        <v>15</v>
-      </c>
-      <c r="C31" s="1">
-        <v>3</v>
-      </c>
-      <c r="D31" s="10">
-        <v>5</v>
-      </c>
-      <c r="E31" s="1">
-        <v>10</v>
-      </c>
-      <c r="F31" s="1">
-        <v>10</v>
-      </c>
-      <c r="G31" s="1">
-        <v>6</v>
-      </c>
-      <c r="H31" s="10">
-        <v>10</v>
-      </c>
-      <c r="I31" s="1">
-        <v>5</v>
-      </c>
-      <c r="J31" s="1">
-        <v>20</v>
-      </c>
-      <c r="K31" s="8">
-        <v>50</v>
-      </c>
-      <c r="L31" s="8">
-        <v>15</v>
-      </c>
-      <c r="M31" s="8">
-        <v>15</v>
-      </c>
-      <c r="N31" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="10">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0</v>
-      </c>
-      <c r="L32" s="1">
-        <v>0</v>
-      </c>
-      <c r="M32" s="1">
-        <v>0</v>
-      </c>
-      <c r="N32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="C33" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="D33" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="E33" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="F33" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="G33" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="H33" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="I33" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="J33" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0</v>
-      </c>
-      <c r="L33" s="1">
-        <v>0</v>
-      </c>
-      <c r="M33" s="1">
-        <v>0</v>
-      </c>
-      <c r="N33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="1">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
-      <c r="H34" s="10">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0</v>
-      </c>
-      <c r="K34" s="1">
-        <v>0</v>
-      </c>
-      <c r="L34" s="1">
-        <v>0</v>
-      </c>
-      <c r="M34" s="1">
-        <v>0</v>
-      </c>
-      <c r="N34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="7">
-        <v>0</v>
-      </c>
-      <c r="C35" s="7">
-        <v>0</v>
-      </c>
-      <c r="D35" s="7">
-        <v>0</v>
-      </c>
-      <c r="E35" s="7">
-        <v>0</v>
-      </c>
-      <c r="F35" s="7">
-        <v>0</v>
-      </c>
-      <c r="G35" s="7">
-        <v>0</v>
-      </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7">
-        <v>0</v>
-      </c>
-      <c r="J35" s="7">
-        <v>0</v>
-      </c>
-      <c r="K35" s="7">
-        <v>0</v>
-      </c>
-      <c r="L35" s="7">
-        <v>0</v>
-      </c>
-      <c r="M35" s="7">
-        <v>0</v>
-      </c>
-      <c r="N35" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="1">
-        <v>1600</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1">
-        <v>400</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
-      <c r="H36" s="10">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
-      <c r="H37" s="10">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="1">
-        <v>50</v>
-      </c>
-      <c r="C38" s="1">
-        <v>175</v>
-      </c>
-      <c r="D38" s="1">
-        <v>175</v>
-      </c>
-      <c r="E38" s="1">
-        <v>50</v>
-      </c>
-      <c r="F38" s="1">
-        <v>40</v>
-      </c>
-      <c r="G38" s="1">
-        <v>30</v>
-      </c>
-      <c r="H38" s="10">
-        <v>350</v>
-      </c>
-      <c r="I38" s="1">
-        <v>10</v>
-      </c>
-      <c r="J38" s="1">
-        <v>5</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1">
-        <v>1</v>
-      </c>
-      <c r="H39" s="10">
-        <v>1</v>
-      </c>
-      <c r="I39" s="1">
-        <v>1</v>
-      </c>
-      <c r="J39" s="1">
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
+      <c r="A39" s="7"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
+      <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-    </row>
-    <row r="44" spans="1:14" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="A42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="1:14" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" s="17"/>
+      <c r="J43" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H44" s="17"/>
-      <c r="J44" s="6" t="s">
-        <v>49</v>
-      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H46" s="7"/>
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="18">
+        <f>+B26/B25/B14/$B$3</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C46" s="18">
+        <f>+C26/C25/C14/$B$3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D46" s="18">
+        <f>+D26/D25/D14/$B$3</f>
+        <v>0.59999999999999987</v>
+      </c>
+      <c r="E46" s="18">
+        <f>+E26/E25/E14/$B$3</f>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="F46" s="18">
+        <f>+F26/F25/F14/$B$3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G46" s="18">
+        <f>+G26/G25/G14/$B$3</f>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="H46" s="18">
+        <f>+H26/H25/H14/$B$3</f>
+        <v>6.535947712418301E-2</v>
+      </c>
+      <c r="I46" s="18">
+        <f>+I26/I25/I14/$B$3</f>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="J46" s="18">
+        <f>+J26/J25/J14/$B$3</f>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="K46" s="18" t="e">
+        <f>+K26/K25/K14/$B$3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L46" s="18" t="e">
+        <f>+L26/L25/L14/$B$3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M46" s="18" t="e">
+        <f>+M26/M25/M14/$B$3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N46" s="18" t="e">
+        <f>+N26/N25/N14/$B$3</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" s="18">
-        <f>+B29/B28/B15/$B$3</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C47" s="18">
-        <f t="shared" ref="C47:N47" si="0">+C29/C28/C15/$B$3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D47" s="18">
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="21">
+        <f t="shared" ref="B48:J48" si="0">+B46*B21*$B$3*$B$2</f>
+        <v>2400</v>
+      </c>
+      <c r="C48" s="21">
         <f t="shared" si="0"/>
-        <v>0.59999999999999987</v>
-      </c>
-      <c r="E47" s="18">
+        <v>1500</v>
+      </c>
+      <c r="D48" s="21">
         <f t="shared" si="0"/>
-        <v>4.4444444444444446</v>
-      </c>
-      <c r="F47" s="18">
+        <v>2159.9999999999995</v>
+      </c>
+      <c r="E48" s="21">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G47" s="18">
+        <v>24000</v>
+      </c>
+      <c r="F48" s="21">
         <f t="shared" si="0"/>
-        <v>1.6666666666666665</v>
-      </c>
-      <c r="H47" s="18">
+        <v>48</v>
+      </c>
+      <c r="G48" s="21">
         <f t="shared" si="0"/>
-        <v>6.535947712418301E-2</v>
-      </c>
-      <c r="I47" s="18">
+        <v>240</v>
+      </c>
+      <c r="H48" s="21">
         <f t="shared" si="0"/>
-        <v>3.333333333333333</v>
-      </c>
-      <c r="J47" s="18">
+        <v>470.58823529411774</v>
+      </c>
+      <c r="I48" s="21">
         <f t="shared" si="0"/>
-        <v>3.333333333333333</v>
-      </c>
-      <c r="K47" s="18" t="e">
+        <v>600</v>
+      </c>
+      <c r="J48" s="21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L47" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M47" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N47" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H48" s="7"/>
+        <v>600</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>85</v>
       </c>
-      <c r="B49" s="21">
-        <f t="shared" ref="B49:G49" si="1">+B47*B24*$B$3*$B$2</f>
-        <v>2400</v>
-      </c>
-      <c r="C49" s="21">
+      <c r="B49" s="22">
+        <f>+B25*B46*$B$3*B14*B21</f>
+        <v>160</v>
+      </c>
+      <c r="C49" s="22">
+        <f>+C25*C46*$B$3*C14*C21</f>
+        <v>2.5</v>
+      </c>
+      <c r="D49" s="22">
+        <f>+D25*D46*$B$3*D14*D21</f>
+        <v>17.999999999999996</v>
+      </c>
+      <c r="E49" s="22">
+        <f>+E25*E46*$B$3*E14*E21</f>
+        <v>240</v>
+      </c>
+      <c r="F49" s="22">
+        <f>+F25*F46*$B$3*F14*F21</f>
+        <v>0.8</v>
+      </c>
+      <c r="G49" s="22">
+        <f>+G25*G46*$B$3*G14*G21</f>
+        <v>1.6</v>
+      </c>
+      <c r="H49" s="22">
+        <f>+H25*H46*$B$3*H14*H21</f>
+        <v>80.000000000000014</v>
+      </c>
+      <c r="I49" s="22">
+        <f>+I25*I46*$B$3*I14*I21</f>
+        <v>4</v>
+      </c>
+      <c r="J49" s="22">
+        <f>+J25*J46*$B$3*J14*J21</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="22">
+        <f t="shared" ref="B50:G50" si="1">+B26*B21</f>
+        <v>160</v>
+      </c>
+      <c r="C50" s="22">
         <f t="shared" si="1"/>
-        <v>1500</v>
-      </c>
-      <c r="D49" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="D50" s="22">
         <f t="shared" si="1"/>
-        <v>2159.9999999999995</v>
-      </c>
-      <c r="E49" s="21">
-        <f t="shared" si="1"/>
-        <v>24000</v>
-      </c>
-      <c r="F49" s="21">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="G49" s="21">
+        <v>18</v>
+      </c>
+      <c r="E50" s="22">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="H49" s="21">
-        <f>+H47*H24*$B$3*$B$2</f>
-        <v>470.58823529411774</v>
-      </c>
-      <c r="I49" s="21">
-        <f t="shared" ref="I49:J49" si="2">+I47*I24*$B$3*$B$2</f>
-        <v>600</v>
-      </c>
-      <c r="J49" s="21">
+      <c r="F50" s="22">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="G50" s="22">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="H50" s="22">
+        <f>+H26*H21</f>
+        <v>80</v>
+      </c>
+      <c r="I50" s="22">
+        <f t="shared" ref="I50:J50" si="2">+I26*I21</f>
+        <v>4</v>
+      </c>
+      <c r="J50" s="22">
         <f t="shared" si="2"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>87</v>
-      </c>
-      <c r="B50" s="22">
-        <f>+B28*B47*$B$3*B15*B24</f>
-        <v>160</v>
-      </c>
-      <c r="C50" s="22">
-        <f t="shared" ref="C50:J50" si="3">+C28*C47*$B$3*C15*C24</f>
-        <v>2.5</v>
-      </c>
-      <c r="D50" s="22">
-        <f t="shared" si="3"/>
-        <v>17.999999999999996</v>
-      </c>
-      <c r="E50" s="22">
-        <f t="shared" si="3"/>
-        <v>240</v>
-      </c>
-      <c r="F50" s="22">
-        <f t="shared" si="3"/>
-        <v>0.8</v>
-      </c>
-      <c r="G50" s="22">
-        <f t="shared" si="3"/>
-        <v>1.6</v>
-      </c>
-      <c r="H50" s="22">
-        <f t="shared" si="3"/>
-        <v>80.000000000000014</v>
-      </c>
-      <c r="I50" s="22">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="J50" s="22">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51" s="22">
-        <f t="shared" ref="B51:G51" si="4">+B29*B24</f>
-        <v>160</v>
-      </c>
-      <c r="C51" s="22">
-        <f t="shared" si="4"/>
-        <v>2.5</v>
-      </c>
-      <c r="D51" s="22">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="E51" s="22">
-        <f t="shared" si="4"/>
-        <v>240</v>
-      </c>
-      <c r="F51" s="22">
-        <f t="shared" si="4"/>
-        <v>0.8</v>
-      </c>
-      <c r="G51" s="22">
-        <f t="shared" si="4"/>
-        <v>1.6</v>
-      </c>
-      <c r="H51" s="22">
-        <f>+H29*H24</f>
-        <v>80</v>
-      </c>
-      <c r="I51" s="22">
-        <f t="shared" ref="I51:J51" si="5">+I29*I24</f>
-        <v>4</v>
-      </c>
-      <c r="J51" s="22">
-        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -2924,7 +2936,7 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B3D47E63-4CCF-498A-86C2-6290C49D352E}">
           <x14:formula1>
             <xm:f>Tables!$A$4:$A$21</xm:f>
@@ -2986,7 +2998,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -2994,7 +3006,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -3042,7 +3054,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <v>9</v>
@@ -3050,7 +3062,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -3058,7 +3070,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>11</v>
@@ -3066,7 +3078,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B17">
         <v>12</v>
@@ -3074,7 +3086,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B18">
         <v>13</v>
@@ -3082,7 +3094,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B19">
         <v>14</v>
@@ -3090,7 +3102,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B20">
         <v>15</v>
@@ -3098,7 +3110,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B21">
         <v>99</v>
@@ -3157,21 +3169,21 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
         <v>74</v>
-      </c>
-      <c r="C1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3188,7 +3200,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3">
         <v>1.5</v>
@@ -3205,7 +3217,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4">
         <v>2.5</v>
@@ -3222,7 +3234,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5">
         <v>9999999</v>
@@ -3239,19 +3251,19 @@
     </row>
     <row r="10" spans="1:7" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
